--- a/statistics_files/2024/2024.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2024/2024.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761F7C0-4154-4125-91F2-19AD358C054E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D06C5-2969-4017-9747-29052CFBAE06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="55">
   <si>
     <t>Library</t>
   </si>
@@ -256,7 +256,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +587,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5CED83-E4A2-4E57-B418-A816FCBB8CF5}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C619"/>
+  <dimension ref="A1:C593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -603,7 +603,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +1609,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="1">
-        <v>66219</v>
+        <v>66226</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="1">
-        <v>66220</v>
+        <v>66227</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="1">
-        <v>66226</v>
+        <v>66440</v>
       </c>
       <c r="C94">
-        <v>277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1642,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="1">
-        <v>66227</v>
+        <v>66441</v>
       </c>
       <c r="C95">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="1">
-        <v>66440</v>
+        <v>66502</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="1">
-        <v>66441</v>
+        <v>66508</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="1">
-        <v>66502</v>
+        <v>66536</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="1">
-        <v>66508</v>
+        <v>66547</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="1">
-        <v>66536</v>
+        <v>66749</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1708,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="1">
-        <v>66547</v>
+        <v>66801</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1719,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="1">
-        <v>66749</v>
+        <v>66839</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="1">
-        <v>66801</v>
+        <v>66945</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="1">
-        <v>66839</v>
+        <v>67042</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1752,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="1">
-        <v>66846</v>
+        <v>67401</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1763,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="1">
-        <v>66901</v>
+        <v>67439</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="1">
-        <v>66945</v>
+        <v>67501</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="1">
-        <v>67002</v>
+        <v>67550</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1796,10 +1796,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="1">
-        <v>67042</v>
+        <v>67654</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,51 +1807,51 @@
         <v>8</v>
       </c>
       <c r="B110" s="1">
-        <v>67154</v>
+        <v>67701</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
-        <v>67401</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1">
-        <v>67410</v>
+        <v>66413</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113" s="1">
-        <v>67439</v>
+        <v>66414</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B114" s="1">
-        <v>67460</v>
+        <v>66431</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -1859,673 +1859,673 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
-        <v>67501</v>
+        <v>66523</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1">
-        <v>67550</v>
+        <v>66528</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1">
-        <v>67654</v>
+        <v>66409</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1">
-        <v>67701</v>
+        <v>66413</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1">
-        <v>67735</v>
+        <v>66414</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1">
-        <v>67801</v>
+        <v>66523</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>66537</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1">
-        <v>66413</v>
+        <v>66546</v>
       </c>
       <c r="C122">
-        <v>468</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B123" s="1">
-        <v>66414</v>
+        <v>66605</v>
       </c>
       <c r="C123">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1">
-        <v>66431</v>
+        <v>66611</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1">
-        <v>66523</v>
+        <v>66615</v>
       </c>
       <c r="C125">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B126" s="1">
-        <v>66528</v>
+        <v>66060</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B127" s="1">
-        <v>66409</v>
+        <v>66415</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1">
-        <v>66413</v>
+        <v>66521</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B129" s="1">
-        <v>66414</v>
+        <v>66538</v>
       </c>
       <c r="C129">
-        <v>370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1">
-        <v>66523</v>
+        <v>66544</v>
       </c>
       <c r="C130">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B131" s="1">
-        <v>66537</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B132" s="1">
-        <v>66546</v>
+        <v>66406</v>
       </c>
       <c r="C132">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B133" s="1">
-        <v>66605</v>
+        <v>66415</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B134" s="1">
-        <v>66611</v>
+        <v>66417</v>
       </c>
       <c r="C134">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B135" s="1">
-        <v>66615</v>
+        <v>66544</v>
       </c>
       <c r="C135">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B136" s="1">
-        <v>66060</v>
+        <v>66024</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B137" s="1">
-        <v>66415</v>
+        <v>66035</v>
       </c>
       <c r="C137">
-        <v>283</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B138" s="1">
-        <v>66521</v>
+        <v>66087</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B139" s="1">
-        <v>66538</v>
+        <v>66090</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="1">
-        <v>66544</v>
+        <v>14</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B142" s="1">
-        <v>66406</v>
+        <v>66008</v>
       </c>
       <c r="C142">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B143" s="1">
-        <v>66415</v>
+        <v>66017</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B144" s="1">
-        <v>66417</v>
+        <v>66035</v>
       </c>
       <c r="C144">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C145">
         <v>12</v>
-      </c>
-      <c r="B145" s="1">
-        <v>66544</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B146" s="1">
-        <v>66024</v>
+        <v>66434</v>
       </c>
       <c r="C146">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B147" s="1">
-        <v>66035</v>
+        <v>64501</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B148" s="1">
-        <v>66087</v>
+        <v>64506</v>
       </c>
       <c r="C148">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B149" s="1">
-        <v>66090</v>
+        <v>66002</v>
       </c>
       <c r="C149">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66008</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C151">
         <v>14</v>
-      </c>
-      <c r="B151" s="1">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B152" s="1">
-        <v>66008</v>
+        <v>66035</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B153" s="1">
-        <v>66017</v>
+        <v>66087</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B154" s="1">
-        <v>66035</v>
+        <v>66090</v>
       </c>
       <c r="C154">
-        <v>305</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="1">
-        <v>66087</v>
+        <v>16</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B156" s="1">
-        <v>66434</v>
+        <v>64485</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B157" s="1">
         <v>64501</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B158" s="1">
-        <v>64506</v>
+        <v>66008</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B159" s="1">
-        <v>66002</v>
+        <v>66017</v>
       </c>
       <c r="C159">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B160" s="1">
-        <v>66008</v>
+        <v>66087</v>
       </c>
       <c r="C160">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B161" s="1">
-        <v>66017</v>
+        <v>66090</v>
       </c>
       <c r="C161">
-        <v>14</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B162" s="1">
-        <v>66035</v>
+        <v>66023</v>
       </c>
       <c r="C162">
-        <v>54</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B163" s="1">
-        <v>66087</v>
+        <v>66041</v>
       </c>
       <c r="C163">
-        <v>438</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B164" s="1">
-        <v>66090</v>
+        <v>66088</v>
       </c>
       <c r="C164">
-        <v>92</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66436</v>
       </c>
       <c r="C165">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B166" s="1">
-        <v>64485</v>
+        <v>0</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B167" s="1">
-        <v>64501</v>
+        <v>66002</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B168" s="1">
-        <v>66008</v>
+        <v>66006</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1">
-        <v>66017</v>
+        <v>66018</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B170" s="1">
-        <v>66087</v>
+        <v>66021</v>
       </c>
       <c r="C170">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B171" s="1">
-        <v>66090</v>
+        <v>66025</v>
       </c>
       <c r="C171">
-        <v>361</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B172" s="1">
-        <v>66023</v>
+        <v>66044</v>
       </c>
       <c r="C172">
-        <v>251</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B173" s="1">
-        <v>66041</v>
+        <v>66046</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B174" s="1">
-        <v>66088</v>
+        <v>66047</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B175" s="1">
-        <v>66436</v>
+        <v>66049</v>
       </c>
       <c r="C175">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2533,10 +2533,10 @@
         <v>18</v>
       </c>
       <c r="B176" s="1">
-        <v>0</v>
+        <v>66052</v>
       </c>
       <c r="C176">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2544,10 +2544,10 @@
         <v>18</v>
       </c>
       <c r="B177" s="1">
-        <v>66002</v>
+        <v>66061</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,10 +2555,10 @@
         <v>18</v>
       </c>
       <c r="B178" s="1">
-        <v>66006</v>
+        <v>66212</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2566,95 +2566,95 @@
         <v>18</v>
       </c>
       <c r="B179" s="1">
-        <v>66018</v>
+        <v>66502</v>
       </c>
       <c r="C179">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B180" s="1">
-        <v>66021</v>
+        <v>66424</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1">
-        <v>66025</v>
+        <v>66434</v>
       </c>
       <c r="C181">
-        <v>1775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B182" s="1">
-        <v>66044</v>
+        <v>66439</v>
       </c>
       <c r="C182">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B183" s="1">
-        <v>66046</v>
+        <v>20</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B184" s="1">
-        <v>66047</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B185" s="1">
-        <v>66049</v>
+        <v>66008</v>
       </c>
       <c r="C185">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B186" s="1">
-        <v>66052</v>
+        <v>66017</v>
       </c>
       <c r="C186">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B187" s="1">
-        <v>66061</v>
+        <v>66032</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2662,68 +2662,68 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B188" s="1">
-        <v>66212</v>
+        <v>66035</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B189" s="1">
-        <v>66502</v>
+        <v>66053</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190" s="1">
-        <v>66424</v>
+        <v>66087</v>
       </c>
       <c r="C190">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B191" s="1">
-        <v>66434</v>
+        <v>66094</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B192" s="1">
-        <v>66439</v>
+        <v>66424</v>
       </c>
       <c r="C192">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>4</v>
+      <c r="B193" s="1">
+        <v>66425</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,10 +2731,10 @@
         <v>20</v>
       </c>
       <c r="B194" s="1">
-        <v>0</v>
+        <v>66434</v>
       </c>
       <c r="C194">
-        <v>13</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,10 +2742,10 @@
         <v>20</v>
       </c>
       <c r="B195" s="1">
-        <v>66008</v>
+        <v>66439</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2753,10 +2753,10 @@
         <v>20</v>
       </c>
       <c r="B196" s="1">
-        <v>66017</v>
+        <v>66515</v>
       </c>
       <c r="C196">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2764,10 +2764,10 @@
         <v>20</v>
       </c>
       <c r="B197" s="1">
-        <v>66032</v>
+        <v>66527</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,10 +2775,10 @@
         <v>20</v>
       </c>
       <c r="B198" s="1">
-        <v>66035</v>
+        <v>66532</v>
       </c>
       <c r="C198">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2786,10 +2786,10 @@
         <v>20</v>
       </c>
       <c r="B199" s="1">
-        <v>66053</v>
+        <v>66534</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2797,10 +2797,10 @@
         <v>20</v>
       </c>
       <c r="B200" s="1">
-        <v>66087</v>
+        <v>66536</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,10 +2808,10 @@
         <v>20</v>
       </c>
       <c r="B201" s="1">
-        <v>66094</v>
+        <v>67042</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2819,10 +2819,10 @@
         <v>20</v>
       </c>
       <c r="B202" s="1">
-        <v>66424</v>
+        <v>67654</v>
       </c>
       <c r="C202">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2830,172 +2830,172 @@
         <v>20</v>
       </c>
       <c r="B203" s="1">
-        <v>66425</v>
+        <v>68355</v>
       </c>
       <c r="C203">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B204" s="1">
-        <v>66434</v>
+        <v>21</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>1726</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1">
-        <v>66439</v>
+        <v>0</v>
       </c>
       <c r="C205">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B206" s="1">
-        <v>66515</v>
+        <v>66002</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B207" s="1">
-        <v>66527</v>
+        <v>66087</v>
       </c>
       <c r="C207">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B208" s="1">
-        <v>66532</v>
+        <v>66434</v>
       </c>
       <c r="C208">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B209" s="1">
-        <v>66534</v>
+        <v>66618</v>
       </c>
       <c r="C209">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B210" s="1">
-        <v>66536</v>
+        <v>22</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B211" s="1">
-        <v>67042</v>
+        <v>0</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B212" s="1">
-        <v>67654</v>
+        <v>66007</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B213" s="1">
-        <v>67735</v>
+        <v>66023</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B214" s="1">
-        <v>68355</v>
+        <v>66032</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C215">
         <v>4</v>
-      </c>
-      <c r="C215">
-        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B216" s="1">
-        <v>0</v>
+        <v>66060</v>
       </c>
       <c r="C216">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B217" s="1">
-        <v>66002</v>
+        <v>66070</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B218" s="1">
-        <v>66087</v>
+        <v>66092</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -3003,35 +3003,35 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B219" s="1">
-        <v>66434</v>
+        <v>66408</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B220" s="1">
-        <v>66618</v>
+        <v>66416</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>4</v>
+      <c r="B221" s="1">
+        <v>66418</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3039,10 +3039,10 @@
         <v>22</v>
       </c>
       <c r="B222" s="1">
-        <v>0</v>
+        <v>66419</v>
       </c>
       <c r="C222">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3050,10 +3050,10 @@
         <v>22</v>
       </c>
       <c r="B223" s="1">
-        <v>66007</v>
+        <v>66428</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3061,10 +3061,10 @@
         <v>22</v>
       </c>
       <c r="B224" s="1">
-        <v>66023</v>
+        <v>66432</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3072,10 +3072,10 @@
         <v>22</v>
       </c>
       <c r="B225" s="1">
-        <v>66032</v>
+        <v>66434</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,10 +3083,10 @@
         <v>22</v>
       </c>
       <c r="B226" s="1">
-        <v>66058</v>
+        <v>66436</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3094,10 +3094,10 @@
         <v>22</v>
       </c>
       <c r="B227" s="1">
-        <v>66060</v>
+        <v>66439</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3105,10 +3105,10 @@
         <v>22</v>
       </c>
       <c r="B228" s="1">
-        <v>66070</v>
+        <v>66440</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3116,10 +3116,10 @@
         <v>22</v>
       </c>
       <c r="B229" s="1">
-        <v>66092</v>
+        <v>66509</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3127,10 +3127,10 @@
         <v>22</v>
       </c>
       <c r="B230" s="1">
-        <v>66408</v>
+        <v>66516</v>
       </c>
       <c r="C230">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,10 +3138,10 @@
         <v>22</v>
       </c>
       <c r="B231" s="1">
-        <v>66416</v>
+        <v>66521</v>
       </c>
       <c r="C231">
-        <v>126</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3149,10 +3149,10 @@
         <v>22</v>
       </c>
       <c r="B232" s="1">
-        <v>66418</v>
+        <v>66533</v>
       </c>
       <c r="C232">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,10 +3160,10 @@
         <v>22</v>
       </c>
       <c r="B233" s="1">
-        <v>66419</v>
+        <v>66534</v>
       </c>
       <c r="C233">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,10 +3171,10 @@
         <v>22</v>
       </c>
       <c r="B234" s="1">
-        <v>66428</v>
+        <v>66540</v>
       </c>
       <c r="C234">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3182,10 +3182,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="1">
-        <v>66432</v>
+        <v>66550</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3193,10 +3193,10 @@
         <v>22</v>
       </c>
       <c r="B236" s="1">
-        <v>66434</v>
+        <v>66552</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,10 +3204,10 @@
         <v>22</v>
       </c>
       <c r="B237" s="1">
-        <v>66436</v>
+        <v>66801</v>
       </c>
       <c r="C237">
-        <v>1292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3215,117 +3215,117 @@
         <v>22</v>
       </c>
       <c r="B238" s="1">
-        <v>66439</v>
+        <v>67401</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B239" s="1">
-        <v>66440</v>
+        <v>23</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B240" s="1">
-        <v>66509</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B241" s="1">
-        <v>66516</v>
+        <v>66053</v>
       </c>
       <c r="C241">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B242" s="1">
-        <v>66521</v>
+        <v>66066</v>
       </c>
       <c r="C242">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B243" s="1">
-        <v>66533</v>
+        <v>66434</v>
       </c>
       <c r="C243">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B244" s="1">
-        <v>66534</v>
+        <v>66439</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B245" s="1">
-        <v>66540</v>
+        <v>66441</v>
       </c>
       <c r="C245">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B246" s="1">
-        <v>66550</v>
+        <v>66502</v>
       </c>
       <c r="C246">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B247" s="1">
-        <v>66552</v>
+        <v>66508</v>
       </c>
       <c r="C247">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B248" s="1">
-        <v>66801</v>
+        <v>66547</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B249" s="1">
-        <v>67401</v>
+        <v>66749</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -3346,11 +3346,11 @@
       <c r="A250" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>4</v>
+      <c r="B250" s="1">
+        <v>66801</v>
       </c>
       <c r="C250">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3358,285 +3358,285 @@
         <v>23</v>
       </c>
       <c r="B251" s="1">
-        <v>0</v>
+        <v>67550</v>
       </c>
       <c r="C251">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B252" s="1">
-        <v>66053</v>
+        <v>24</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B253" s="1">
-        <v>66066</v>
+        <v>66007</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B254" s="1">
-        <v>66434</v>
+        <v>66020</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B255" s="1">
-        <v>66439</v>
+        <v>66027</v>
       </c>
       <c r="C255">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B256" s="1">
-        <v>66441</v>
+        <v>66043</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B257" s="1">
-        <v>66502</v>
+        <v>66048</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B258" s="1">
-        <v>66508</v>
+        <v>66061</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B259" s="1">
-        <v>66547</v>
+        <v>66109</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B260" s="1">
-        <v>66749</v>
+        <v>66202</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B261" s="1">
-        <v>66801</v>
+        <v>66227</v>
       </c>
       <c r="C261">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B262" s="1">
-        <v>66846</v>
+        <v>25</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B263" s="1">
-        <v>67002</v>
+        <v>0</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B264" s="1">
-        <v>67154</v>
+        <v>66002</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B265" s="1">
-        <v>67550</v>
+        <v>66007</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66012</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B267" s="1">
-        <v>66007</v>
+        <v>66020</v>
       </c>
       <c r="C267">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B268" s="1">
-        <v>66020</v>
+        <v>66023</v>
       </c>
       <c r="C268">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B269" s="1">
         <v>66027</v>
       </c>
       <c r="C269">
-        <v>10</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B270" s="1">
         <v>66043</v>
       </c>
       <c r="C270">
-        <v>1719</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B271" s="1">
-        <v>66048</v>
+        <v>66046</v>
       </c>
       <c r="C271">
-        <v>749</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B272" s="1">
-        <v>66061</v>
+        <v>66048</v>
       </c>
       <c r="C272">
-        <v>26</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B273" s="1">
-        <v>66109</v>
+        <v>66054</v>
       </c>
       <c r="C273">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B274" s="1">
-        <v>66202</v>
+        <v>66061</v>
       </c>
       <c r="C274">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B275" s="1">
-        <v>66227</v>
+        <v>66066</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>4</v>
+      <c r="B276" s="1">
+        <v>66086</v>
       </c>
       <c r="C276">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,10 +3644,10 @@
         <v>25</v>
       </c>
       <c r="B277" s="1">
-        <v>0</v>
+        <v>66097</v>
       </c>
       <c r="C277">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3655,10 +3655,10 @@
         <v>25</v>
       </c>
       <c r="B278" s="1">
-        <v>66002</v>
+        <v>66109</v>
       </c>
       <c r="C278">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3666,326 +3666,326 @@
         <v>25</v>
       </c>
       <c r="B279" s="1">
-        <v>66007</v>
+        <v>66112</v>
       </c>
       <c r="C279">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B280" s="1">
         <v>66012</v>
       </c>
       <c r="C280">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B281" s="1">
-        <v>66020</v>
+        <v>66018</v>
       </c>
       <c r="C281">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B282" s="1">
-        <v>66023</v>
+        <v>66025</v>
       </c>
       <c r="C282">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B283" s="1">
-        <v>66027</v>
+        <v>66044</v>
       </c>
       <c r="C283">
-        <v>1375</v>
+        <v>36</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B284" s="1">
-        <v>66043</v>
+        <v>66046</v>
       </c>
       <c r="C284">
-        <v>548</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B285" s="1">
-        <v>66046</v>
+        <v>66047</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B286" s="1">
-        <v>66048</v>
+        <v>66049</v>
       </c>
       <c r="C286">
-        <v>7846</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B287" s="1">
-        <v>66054</v>
+        <v>66052</v>
       </c>
       <c r="C287">
-        <v>13</v>
+        <v>700</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B288" s="1">
-        <v>66061</v>
+        <v>66086</v>
       </c>
       <c r="C288">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B289" s="1">
-        <v>66066</v>
+        <v>66102</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B290" s="1">
-        <v>66086</v>
+        <v>66212</v>
       </c>
       <c r="C290">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B291" s="1">
-        <v>66097</v>
+        <v>0</v>
       </c>
       <c r="C291">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B292" s="1">
-        <v>66109</v>
+        <v>66064</v>
       </c>
       <c r="C292">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B293" s="1">
-        <v>66112</v>
+        <v>66086</v>
       </c>
       <c r="C293">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B294" s="1">
-        <v>66012</v>
+        <v>66212</v>
       </c>
       <c r="C294">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B295" s="1">
-        <v>66018</v>
+        <v>66413</v>
       </c>
       <c r="C295">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C296">
         <v>26</v>
-      </c>
-      <c r="B296" s="1">
-        <v>66025</v>
-      </c>
-      <c r="C296">
-        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B297" s="1">
-        <v>66044</v>
+        <v>66451</v>
       </c>
       <c r="C297">
-        <v>36</v>
+        <v>375</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B298" s="1">
-        <v>66046</v>
+        <v>66510</v>
       </c>
       <c r="C298">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B299" s="1">
-        <v>66047</v>
+        <v>66523</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B300" s="1">
-        <v>66049</v>
+        <v>66524</v>
       </c>
       <c r="C300">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C301">
         <v>26</v>
-      </c>
-      <c r="B301" s="1">
-        <v>66052</v>
-      </c>
-      <c r="C301">
-        <v>700</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B302" s="1">
-        <v>66086</v>
+        <v>66543</v>
       </c>
       <c r="C302">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B303" s="1">
-        <v>66102</v>
+        <v>66614</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B304" s="1">
-        <v>66212</v>
+        <v>66048</v>
       </c>
       <c r="C304">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B305" s="1">
-        <v>0</v>
+        <v>66054</v>
       </c>
       <c r="C305">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B306" s="1">
-        <v>66064</v>
+        <v>66066</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B307" s="1">
-        <v>66086</v>
+        <v>0</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B308" s="1">
-        <v>66212</v>
+        <v>66044</v>
       </c>
       <c r="C308">
         <v>7</v>
@@ -3993,134 +3993,134 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B309" s="1">
-        <v>66413</v>
+        <v>66070</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B310" s="1">
-        <v>66414</v>
+        <v>66073</v>
       </c>
       <c r="C310">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B311" s="1">
-        <v>66451</v>
+        <v>66088</v>
       </c>
       <c r="C311">
-        <v>375</v>
+        <v>120</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B312" s="1">
-        <v>66510</v>
+        <v>66429</v>
       </c>
       <c r="C312">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B313" s="1">
-        <v>66523</v>
+        <v>66440</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B314" s="1">
-        <v>66524</v>
+        <v>66512</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>744</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B315" s="1">
-        <v>66537</v>
+        <v>66542</v>
       </c>
       <c r="C315">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B316" s="1">
-        <v>66543</v>
+        <v>66604</v>
       </c>
       <c r="C316">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B317" s="1">
-        <v>66614</v>
+        <v>66608</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B318" s="1">
-        <v>66048</v>
+        <v>66614</v>
       </c>
       <c r="C318">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B319" s="1">
-        <v>66054</v>
+        <v>66615</v>
       </c>
       <c r="C319">
-        <v>170</v>
+        <v>65</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B320" s="1">
-        <v>66066</v>
+        <v>66616</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,10 +4128,10 @@
         <v>29</v>
       </c>
       <c r="B321" s="1">
-        <v>0</v>
+        <v>66617</v>
       </c>
       <c r="C321">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,249 +4139,249 @@
         <v>29</v>
       </c>
       <c r="B322" s="1">
-        <v>66044</v>
+        <v>66618</v>
       </c>
       <c r="C322">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B323" s="1">
-        <v>66070</v>
+        <v>30</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>211</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B324" s="1">
-        <v>66073</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B325" s="1">
-        <v>66088</v>
+        <v>66044</v>
       </c>
       <c r="C325">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B326" s="1">
-        <v>66429</v>
+        <v>66047</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B327" s="1">
-        <v>66440</v>
+        <v>66049</v>
       </c>
       <c r="C327">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B328" s="1">
-        <v>66512</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>744</v>
+        <v>43</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B329" s="1">
-        <v>66542</v>
+        <v>66002</v>
       </c>
       <c r="C329">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B330" s="1">
-        <v>66604</v>
+        <v>66016</v>
       </c>
       <c r="C330">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C331">
         <v>29</v>
-      </c>
-      <c r="B331" s="1">
-        <v>66608</v>
-      </c>
-      <c r="C331">
-        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B332" s="1">
-        <v>66614</v>
+        <v>66060</v>
       </c>
       <c r="C332">
-        <v>21</v>
+        <v>229</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B333" s="1">
-        <v>66615</v>
+        <v>66066</v>
       </c>
       <c r="C333">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B334" s="1">
-        <v>66616</v>
+        <v>66088</v>
       </c>
       <c r="C334">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B335" s="1">
-        <v>66617</v>
+        <v>66097</v>
       </c>
       <c r="C335">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B336" s="1">
-        <v>66618</v>
+        <v>66424</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B338" s="1">
         <v>0</v>
       </c>
       <c r="C338">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B339" s="1">
-        <v>66044</v>
+        <v>66402</v>
       </c>
       <c r="C339">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B340" s="1">
-        <v>66047</v>
+        <v>66413</v>
       </c>
       <c r="C340">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B341" s="1">
-        <v>66049</v>
+        <v>66414</v>
       </c>
       <c r="C341">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B342" s="1">
-        <v>0</v>
+        <v>66451</v>
       </c>
       <c r="C342">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B343" s="1">
-        <v>66002</v>
+        <v>66523</v>
       </c>
       <c r="C343">
-        <v>3</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B344" s="1">
-        <v>66016</v>
+        <v>66524</v>
       </c>
       <c r="C344">
         <v>4</v>
@@ -4389,475 +4389,475 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B345" s="1">
-        <v>66023</v>
+        <v>66537</v>
       </c>
       <c r="C345">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B346" s="1">
-        <v>66060</v>
+        <v>66543</v>
       </c>
       <c r="C346">
-        <v>229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B347" s="1">
-        <v>66066</v>
+        <v>66614</v>
       </c>
       <c r="C347">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B348" s="1">
-        <v>66088</v>
+        <v>66868</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B349" s="1">
-        <v>66097</v>
+        <v>33</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C349">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B350" s="1">
-        <v>66424</v>
+        <v>0</v>
       </c>
       <c r="C350">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66026</v>
       </c>
       <c r="C351">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B352" s="1">
-        <v>0</v>
+        <v>66030</v>
       </c>
       <c r="C352">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B353" s="1">
-        <v>66402</v>
+        <v>66042</v>
       </c>
       <c r="C353">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B354" s="1">
-        <v>66413</v>
+        <v>66053</v>
       </c>
       <c r="C354">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B355" s="1">
-        <v>66414</v>
+        <v>66064</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>756</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B356" s="1">
-        <v>66451</v>
+        <v>66067</v>
       </c>
       <c r="C356">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B357" s="1">
-        <v>66523</v>
+        <v>66071</v>
       </c>
       <c r="C357">
-        <v>1219</v>
+        <v>118</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B358" s="1">
-        <v>66524</v>
+        <v>66072</v>
       </c>
       <c r="C358">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B359" s="1">
-        <v>66537</v>
+        <v>66083</v>
       </c>
       <c r="C359">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B360" s="1">
-        <v>66543</v>
+        <v>66411</v>
       </c>
       <c r="C360">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B361" s="1">
-        <v>66614</v>
+        <v>66451</v>
       </c>
       <c r="C361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B362" s="1">
-        <v>66868</v>
+        <v>67401</v>
       </c>
       <c r="C362">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C363">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B364" s="1">
-        <v>0</v>
+        <v>66044</v>
       </c>
       <c r="C364">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B365" s="1">
-        <v>66026</v>
+        <v>66050</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B366" s="1">
-        <v>66030</v>
+        <v>66054</v>
       </c>
       <c r="C366">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B367" s="1">
-        <v>66042</v>
+        <v>66066</v>
       </c>
       <c r="C367">
-        <v>44</v>
+        <v>414</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B368" s="1">
-        <v>66053</v>
+        <v>66070</v>
       </c>
       <c r="C368">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B369" s="1">
-        <v>66064</v>
+        <v>66073</v>
       </c>
       <c r="C369">
-        <v>756</v>
+        <v>45</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B370" s="1">
-        <v>66067</v>
+        <v>66088</v>
       </c>
       <c r="C370">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B371" s="1">
-        <v>66071</v>
+        <v>35</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C371">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B372" s="1">
-        <v>66072</v>
+        <v>0</v>
       </c>
       <c r="C372">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B373" s="1">
-        <v>66083</v>
+        <v>66006</v>
       </c>
       <c r="C373">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B374" s="1">
-        <v>66411</v>
+        <v>66007</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B375" s="1">
-        <v>66451</v>
+        <v>66021</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B376" s="1">
-        <v>67337</v>
+        <v>66030</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B377" s="1">
-        <v>67401</v>
+        <v>66032</v>
       </c>
       <c r="C377">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B378" s="1">
-        <v>67410</v>
+        <v>66033</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66040</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B380" s="1">
-        <v>66044</v>
+        <v>66042</v>
       </c>
       <c r="C380">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B381" s="1">
-        <v>66050</v>
+        <v>66046</v>
       </c>
       <c r="C381">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B382" s="1">
-        <v>66054</v>
+        <v>66053</v>
       </c>
       <c r="C382">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B383" s="1">
-        <v>66066</v>
+        <v>66064</v>
       </c>
       <c r="C383">
-        <v>414</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B384" s="1">
-        <v>66070</v>
+        <v>66066</v>
       </c>
       <c r="C384">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B385" s="1">
-        <v>66073</v>
+        <v>66067</v>
       </c>
       <c r="C385">
-        <v>45</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B386" s="1">
-        <v>66088</v>
+        <v>66076</v>
       </c>
       <c r="C386">
-        <v>38</v>
+        <v>440</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>4</v>
+      <c r="B387" s="1">
+        <v>66078</v>
       </c>
       <c r="C387">
-        <v>43</v>
+        <v>153</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,10 +4865,10 @@
         <v>35</v>
       </c>
       <c r="B388" s="1">
-        <v>0</v>
+        <v>66079</v>
       </c>
       <c r="C388">
-        <v>10</v>
+        <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,10 +4876,10 @@
         <v>35</v>
       </c>
       <c r="B389" s="1">
-        <v>66006</v>
+        <v>66080</v>
       </c>
       <c r="C389">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,10 +4887,10 @@
         <v>35</v>
       </c>
       <c r="B390" s="1">
-        <v>66007</v>
+        <v>66083</v>
       </c>
       <c r="C390">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,10 +4898,10 @@
         <v>35</v>
       </c>
       <c r="B391" s="1">
-        <v>66021</v>
+        <v>66092</v>
       </c>
       <c r="C391">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -4909,10 +4909,10 @@
         <v>35</v>
       </c>
       <c r="B392" s="1">
-        <v>66030</v>
+        <v>66095</v>
       </c>
       <c r="C392">
-        <v>20</v>
+        <v>326</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4920,10 +4920,10 @@
         <v>35</v>
       </c>
       <c r="B393" s="1">
-        <v>66032</v>
+        <v>66411</v>
       </c>
       <c r="C393">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -4931,10 +4931,10 @@
         <v>35</v>
       </c>
       <c r="B394" s="1">
-        <v>66033</v>
+        <v>66451</v>
       </c>
       <c r="C394">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,10 +4942,10 @@
         <v>35</v>
       </c>
       <c r="B395" s="1">
-        <v>66040</v>
+        <v>66502</v>
       </c>
       <c r="C395">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,10 +4953,10 @@
         <v>35</v>
       </c>
       <c r="B396" s="1">
-        <v>66042</v>
+        <v>66510</v>
       </c>
       <c r="C396">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +4964,10 @@
         <v>35</v>
       </c>
       <c r="B397" s="1">
-        <v>66046</v>
+        <v>66523</v>
       </c>
       <c r="C397">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,10 +4975,10 @@
         <v>35</v>
       </c>
       <c r="B398" s="1">
-        <v>66053</v>
+        <v>66524</v>
       </c>
       <c r="C398">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,10 +4986,10 @@
         <v>35</v>
       </c>
       <c r="B399" s="1">
-        <v>66064</v>
+        <v>66528</v>
       </c>
       <c r="C399">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,10 +4997,10 @@
         <v>35</v>
       </c>
       <c r="B400" s="1">
-        <v>66066</v>
+        <v>66536</v>
       </c>
       <c r="C400">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,10 +5008,10 @@
         <v>35</v>
       </c>
       <c r="B401" s="1">
-        <v>66067</v>
+        <v>66537</v>
       </c>
       <c r="C401">
-        <v>4898</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,10 +5019,10 @@
         <v>35</v>
       </c>
       <c r="B402" s="1">
-        <v>66075</v>
+        <v>66542</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,10 +5030,10 @@
         <v>35</v>
       </c>
       <c r="B403" s="1">
-        <v>66076</v>
+        <v>66543</v>
       </c>
       <c r="C403">
-        <v>440</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,10 +5041,10 @@
         <v>35</v>
       </c>
       <c r="B404" s="1">
-        <v>66078</v>
+        <v>66547</v>
       </c>
       <c r="C404">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,10 +5052,10 @@
         <v>35</v>
       </c>
       <c r="B405" s="1">
-        <v>66079</v>
+        <v>66617</v>
       </c>
       <c r="C405">
-        <v>429</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5063,10 +5063,10 @@
         <v>35</v>
       </c>
       <c r="B406" s="1">
-        <v>66080</v>
+        <v>66801</v>
       </c>
       <c r="C406">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,10 +5074,10 @@
         <v>35</v>
       </c>
       <c r="B407" s="1">
-        <v>66083</v>
+        <v>66856</v>
       </c>
       <c r="C407">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>35</v>
       </c>
       <c r="B408" s="1">
-        <v>66092</v>
+        <v>66871</v>
       </c>
       <c r="C408">
-        <v>202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,10 +5096,10 @@
         <v>35</v>
       </c>
       <c r="B409" s="1">
-        <v>66095</v>
+        <v>67501</v>
       </c>
       <c r="C409">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>35</v>
       </c>
       <c r="B410" s="1">
-        <v>66411</v>
+        <v>67654</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -5118,18 +5118,18 @@
         <v>35</v>
       </c>
       <c r="B411" s="1">
-        <v>66451</v>
+        <v>67701</v>
       </c>
       <c r="C411">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B412" s="1">
-        <v>66502</v>
+        <v>0</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -5137,659 +5137,659 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B413" s="1">
-        <v>66510</v>
+        <v>66012</v>
       </c>
       <c r="C413">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B414" s="1">
-        <v>66523</v>
+        <v>66046</v>
       </c>
       <c r="C414">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B415" s="1">
-        <v>66524</v>
+        <v>66067</v>
       </c>
       <c r="C415">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B416" s="1">
-        <v>66528</v>
+        <v>66076</v>
       </c>
       <c r="C416">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B417" s="1">
-        <v>66531</v>
+        <v>66095</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B418" s="1">
-        <v>66536</v>
+        <v>66409</v>
       </c>
       <c r="C418">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B419" s="1">
-        <v>66537</v>
+        <v>66414</v>
       </c>
       <c r="C419">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B420" s="1">
-        <v>66542</v>
+        <v>66524</v>
       </c>
       <c r="C420">
-        <v>13</v>
+        <v>710</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B421" s="1">
-        <v>66543</v>
+        <v>66528</v>
       </c>
       <c r="C421">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B422" s="1">
-        <v>66547</v>
+        <v>66537</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B423" s="1">
-        <v>66617</v>
+        <v>66542</v>
       </c>
       <c r="C423">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B424" s="1">
-        <v>66801</v>
+        <v>66611</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B425" s="1">
-        <v>66846</v>
+        <v>67401</v>
       </c>
       <c r="C425">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B426" s="1">
-        <v>66856</v>
+        <v>37</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B427" s="1">
-        <v>66871</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B428" s="1">
-        <v>67154</v>
+        <v>66026</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B429" s="1">
-        <v>67501</v>
+        <v>66030</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B430" s="1">
-        <v>67654</v>
+        <v>66032</v>
       </c>
       <c r="C430">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B431" s="1">
-        <v>67701</v>
+        <v>66040</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B432" s="1">
-        <v>0</v>
+        <v>66042</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B433" s="1">
-        <v>66012</v>
+        <v>66049</v>
       </c>
       <c r="C433">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B434" s="1">
-        <v>66046</v>
+        <v>66053</v>
       </c>
       <c r="C434">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B435" s="1">
-        <v>66067</v>
+        <v>66061</v>
       </c>
       <c r="C435">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B436" s="1">
-        <v>66076</v>
+        <v>66064</v>
       </c>
       <c r="C436">
-        <v>39</v>
+        <v>248</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B437" s="1">
-        <v>66095</v>
+        <v>66067</v>
       </c>
       <c r="C437">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B438" s="1">
-        <v>66409</v>
+        <v>66071</v>
       </c>
       <c r="C438">
-        <v>10</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B439" s="1">
-        <v>66414</v>
+        <v>66072</v>
       </c>
       <c r="C439">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B440" s="1">
-        <v>66524</v>
+        <v>66083</v>
       </c>
       <c r="C440">
-        <v>710</v>
+        <v>37</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B441" s="1">
-        <v>66528</v>
+        <v>66092</v>
       </c>
       <c r="C441">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B442" s="1">
-        <v>66537</v>
+        <v>66411</v>
       </c>
       <c r="C442">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B443" s="1">
-        <v>66542</v>
+        <v>66441</v>
       </c>
       <c r="C443">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B444" s="1">
-        <v>66611</v>
+        <v>66508</v>
       </c>
       <c r="C444">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B445" s="1">
-        <v>67401</v>
+        <v>66749</v>
       </c>
       <c r="C445">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>4</v>
+      <c r="B446" s="1">
+        <v>67701</v>
       </c>
       <c r="C446">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B447" s="1">
-        <v>0</v>
+        <v>66050</v>
       </c>
       <c r="C447">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B448" s="1">
-        <v>66026</v>
+        <v>66066</v>
       </c>
       <c r="C448">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B449" s="1">
-        <v>66030</v>
+        <v>66073</v>
       </c>
       <c r="C449">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B450" s="1">
-        <v>66032</v>
+        <v>0</v>
       </c>
       <c r="C450">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B451" s="1">
-        <v>66040</v>
+        <v>66067</v>
       </c>
       <c r="C451">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B452" s="1">
-        <v>66042</v>
+        <v>66076</v>
       </c>
       <c r="C452">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B453" s="1">
-        <v>66049</v>
+        <v>66095</v>
       </c>
       <c r="C453">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B454" s="1">
-        <v>66053</v>
+        <v>66451</v>
       </c>
       <c r="C454">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B455" s="1">
-        <v>66061</v>
+        <v>66523</v>
       </c>
       <c r="C455">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B456" s="1">
-        <v>66064</v>
+        <v>66528</v>
       </c>
       <c r="C456">
-        <v>248</v>
+        <v>6</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B457" s="1">
-        <v>66067</v>
+        <v>40</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C457">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B458" s="1">
-        <v>66071</v>
+        <v>0</v>
       </c>
       <c r="C458">
-        <v>2590</v>
+        <v>19</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B459" s="1">
-        <v>66072</v>
+        <v>66403</v>
       </c>
       <c r="C459">
-        <v>62</v>
+        <v>422</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B460" s="1">
-        <v>66083</v>
+        <v>0</v>
       </c>
       <c r="C460">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B461" s="1">
-        <v>66092</v>
+        <v>66408</v>
       </c>
       <c r="C461">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B462" s="1">
-        <v>66411</v>
+        <v>66534</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B463" s="1">
-        <v>66441</v>
+        <v>42</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B464" s="1">
-        <v>66508</v>
+        <v>0</v>
       </c>
       <c r="C464">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B465" s="1">
-        <v>66749</v>
+        <v>66053</v>
       </c>
       <c r="C465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B466" s="1">
-        <v>67410</v>
+        <v>66534</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B467" s="1">
-        <v>67432</v>
+        <v>0</v>
       </c>
       <c r="C467">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B468" s="1">
-        <v>67701</v>
+        <v>66403</v>
       </c>
       <c r="C468">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B469" s="1">
-        <v>66050</v>
+        <v>66534</v>
       </c>
       <c r="C469">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B470" s="1">
-        <v>66066</v>
+        <v>66032</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B471" s="1">
-        <v>66073</v>
+        <v>66033</v>
       </c>
       <c r="C471">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B472" s="1">
-        <v>0</v>
+        <v>66067</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -5797,29 +5797,29 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B473" s="1">
-        <v>66067</v>
+        <v>66078</v>
       </c>
       <c r="C473">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B474" s="1">
-        <v>66076</v>
+        <v>66080</v>
       </c>
       <c r="C474">
-        <v>83</v>
+        <v>346</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B475" s="1">
         <v>66095</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B476" s="1">
-        <v>66451</v>
+        <v>66508</v>
       </c>
       <c r="C476">
         <v>2</v>
@@ -5841,142 +5841,142 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B477" s="1">
-        <v>66523</v>
+        <v>45</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C477">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B478" s="1">
-        <v>66528</v>
+        <v>66043</v>
       </c>
       <c r="C478">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66044</v>
       </c>
       <c r="C479">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C480">
         <v>40</v>
-      </c>
-      <c r="B480" s="1">
-        <v>0</v>
-      </c>
-      <c r="C480">
-        <v>19</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B481" s="1">
-        <v>66403</v>
+        <v>66409</v>
       </c>
       <c r="C481">
-        <v>422</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B482" s="1">
-        <v>0</v>
+        <v>66416</v>
       </c>
       <c r="C482">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B483" s="1">
-        <v>66408</v>
+        <v>66418</v>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B484" s="1">
-        <v>66534</v>
+        <v>66507</v>
       </c>
       <c r="C484">
-        <v>1578</v>
+        <v>237</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66533</v>
       </c>
       <c r="C485">
-        <v>5</v>
+        <v>736</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B486" s="1">
-        <v>0</v>
+        <v>66536</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>332</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B487" s="1">
-        <v>66053</v>
+        <v>66539</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B488" s="1">
-        <v>66534</v>
+        <v>66547</v>
       </c>
       <c r="C488">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B489" s="1">
-        <v>0</v>
+        <v>66604</v>
       </c>
       <c r="C489">
         <v>3</v>
@@ -5984,835 +5984,835 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B490" s="1">
-        <v>66403</v>
+        <v>66606</v>
       </c>
       <c r="C490">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B491" s="1">
-        <v>66534</v>
+        <v>66611</v>
       </c>
       <c r="C491">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B492" s="1">
-        <v>66032</v>
+        <v>66614</v>
       </c>
       <c r="C492">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B493" s="1">
-        <v>66033</v>
+        <v>66615</v>
       </c>
       <c r="C493">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B494" s="1">
-        <v>66067</v>
+        <v>66618</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B495" s="1">
-        <v>66078</v>
+        <v>46</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C495">
-        <v>20</v>
+        <v>335</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B496" s="1">
-        <v>66080</v>
+        <v>0</v>
       </c>
       <c r="C496">
-        <v>346</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B497" s="1">
-        <v>66095</v>
+        <v>66002</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B498" s="1">
-        <v>66508</v>
+        <v>66040</v>
       </c>
       <c r="C498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66053</v>
       </c>
       <c r="C499">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B500" s="1">
-        <v>66043</v>
+        <v>66403</v>
       </c>
       <c r="C500">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B501" s="1">
-        <v>66044</v>
+        <v>66408</v>
       </c>
       <c r="C501">
-        <v>2</v>
+        <v>161</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B502" s="1">
-        <v>66402</v>
+        <v>66425</v>
       </c>
       <c r="C502">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B503" s="1">
-        <v>66409</v>
+        <v>66434</v>
       </c>
       <c r="C503">
-        <v>4</v>
+        <v>133</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B504" s="1">
-        <v>66416</v>
+        <v>66436</v>
       </c>
       <c r="C504">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B505" s="1">
-        <v>66418</v>
+        <v>66515</v>
       </c>
       <c r="C505">
-        <v>246</v>
+        <v>324</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B506" s="1">
-        <v>66507</v>
+        <v>66527</v>
       </c>
       <c r="C506">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B507" s="1">
-        <v>66533</v>
+        <v>66534</v>
       </c>
       <c r="C507">
-        <v>736</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B508" s="1">
-        <v>66536</v>
+        <v>66538</v>
       </c>
       <c r="C508">
-        <v>332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B509" s="1">
-        <v>66539</v>
+        <v>66547</v>
       </c>
       <c r="C509">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B510" s="1">
-        <v>66547</v>
+        <v>66550</v>
       </c>
       <c r="C510">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B511" s="1">
-        <v>66604</v>
+        <v>47</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C511">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B512" s="1">
-        <v>66606</v>
+        <v>0</v>
       </c>
       <c r="C512">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B513" s="1">
-        <v>66611</v>
+        <v>66403</v>
       </c>
       <c r="C513">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B514" s="1">
-        <v>66614</v>
+        <v>66404</v>
       </c>
       <c r="C514">
-        <v>7</v>
+        <v>206</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B515" s="1">
-        <v>66615</v>
+        <v>66408</v>
       </c>
       <c r="C515">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B516" s="1">
-        <v>66618</v>
+        <v>66415</v>
       </c>
       <c r="C516">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B517" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C517">
         <v>4</v>
-      </c>
-      <c r="C517">
-        <v>334</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B518" s="1">
-        <v>0</v>
+        <v>66417</v>
       </c>
       <c r="C518">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B519" s="1">
-        <v>66002</v>
+        <v>66427</v>
       </c>
       <c r="C519">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B520" s="1">
-        <v>66040</v>
+        <v>66428</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B521" s="1">
-        <v>66053</v>
+        <v>66534</v>
       </c>
       <c r="C521">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B522" s="1">
-        <v>66403</v>
+        <v>66538</v>
       </c>
       <c r="C522">
-        <v>4</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B523" s="1">
-        <v>66408</v>
+        <v>66540</v>
       </c>
       <c r="C523">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B524" s="1">
-        <v>66425</v>
+        <v>66544</v>
       </c>
       <c r="C524">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B525" s="1">
-        <v>66434</v>
+        <v>66550</v>
       </c>
       <c r="C525">
-        <v>133</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B526" s="1">
-        <v>66436</v>
+        <v>0</v>
       </c>
       <c r="C526">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B527" s="1">
-        <v>66515</v>
+        <v>66418</v>
       </c>
       <c r="C527">
-        <v>324</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B528" s="1">
-        <v>66527</v>
+        <v>66526</v>
       </c>
       <c r="C528">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B529" s="1">
-        <v>66534</v>
+        <v>66533</v>
       </c>
       <c r="C529">
-        <v>2800</v>
+        <v>28</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B530" s="1">
-        <v>66538</v>
+        <v>66536</v>
       </c>
       <c r="C530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B531" s="1">
-        <v>66547</v>
+        <v>66539</v>
       </c>
       <c r="C531">
-        <v>1</v>
+        <v>949</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B532" s="1">
-        <v>66550</v>
+        <v>66547</v>
       </c>
       <c r="C532">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B533" s="1">
-        <v>67410</v>
+        <v>66604</v>
       </c>
       <c r="C533">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66605</v>
       </c>
       <c r="C534">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B535" s="1">
-        <v>0</v>
+        <v>66606</v>
       </c>
       <c r="C535">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B536" s="1">
-        <v>66403</v>
+        <v>66615</v>
       </c>
       <c r="C536">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B537" s="1">
-        <v>66404</v>
+        <v>66617</v>
       </c>
       <c r="C537">
-        <v>206</v>
+        <v>90</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B538" s="1">
-        <v>66408</v>
+        <v>66618</v>
       </c>
       <c r="C538">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B539" s="1">
-        <v>66415</v>
+        <v>49</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C539">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B540" s="1">
-        <v>66416</v>
+        <v>0</v>
       </c>
       <c r="C540">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B541" s="1">
-        <v>66417</v>
+        <v>66007</v>
       </c>
       <c r="C541">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B542" s="1">
-        <v>66427</v>
+        <v>66012</v>
       </c>
       <c r="C542">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B543" s="1">
-        <v>66428</v>
+        <v>66025</v>
       </c>
       <c r="C543">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B544" s="1">
-        <v>66534</v>
+        <v>66044</v>
       </c>
       <c r="C544">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B545" s="1">
-        <v>66538</v>
+        <v>66048</v>
       </c>
       <c r="C545">
-        <v>1068</v>
+        <v>294</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B546" s="1">
-        <v>66540</v>
+        <v>66049</v>
       </c>
       <c r="C546">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B547" s="1">
-        <v>66544</v>
+        <v>66052</v>
       </c>
       <c r="C547">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B548" s="1">
-        <v>66550</v>
+        <v>66054</v>
       </c>
       <c r="C548">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B549" s="1">
-        <v>0</v>
+        <v>66066</v>
       </c>
       <c r="C549">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B550" s="1">
-        <v>66418</v>
+        <v>66073</v>
       </c>
       <c r="C550">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B551" s="1">
-        <v>66526</v>
+        <v>66086</v>
       </c>
       <c r="C551">
-        <v>1</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B552" s="1">
-        <v>66533</v>
+        <v>66109</v>
       </c>
       <c r="C552">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B553" s="1">
-        <v>66536</v>
+        <v>0</v>
       </c>
       <c r="C553">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B554" s="1">
-        <v>66539</v>
+        <v>66054</v>
       </c>
       <c r="C554">
-        <v>949</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B555" s="1">
-        <v>66547</v>
+        <v>66060</v>
       </c>
       <c r="C555">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B556" s="1">
-        <v>66604</v>
+        <v>66066</v>
       </c>
       <c r="C556">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B557" s="1">
-        <v>66605</v>
+        <v>66070</v>
       </c>
       <c r="C557">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B558" s="1">
-        <v>66606</v>
+        <v>66088</v>
       </c>
       <c r="C558">
-        <v>12</v>
+        <v>359</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B559" s="1">
-        <v>66615</v>
+        <v>66419</v>
       </c>
       <c r="C559">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B560" s="1">
-        <v>66617</v>
+        <v>66512</v>
       </c>
       <c r="C560">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B561" s="1">
-        <v>66618</v>
+        <v>66006</v>
       </c>
       <c r="C561">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66021</v>
       </c>
       <c r="C562">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B563" s="1">
-        <v>0</v>
+        <v>66030</v>
       </c>
       <c r="C563">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B564" s="1">
-        <v>66007</v>
+        <v>66066</v>
       </c>
       <c r="C564">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B565" s="1">
-        <v>66012</v>
+        <v>66067</v>
       </c>
       <c r="C565">
         <v>29</v>
@@ -6820,595 +6820,309 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B566" s="1">
-        <v>66025</v>
+        <v>66071</v>
       </c>
       <c r="C566">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B567" s="1">
-        <v>66044</v>
+        <v>66079</v>
       </c>
       <c r="C567">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B568" s="1">
-        <v>66048</v>
+        <v>66092</v>
       </c>
       <c r="C568">
-        <v>294</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B569" s="1">
-        <v>66049</v>
+        <v>66428</v>
       </c>
       <c r="C569">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B570" s="1">
-        <v>66052</v>
+        <v>66516</v>
       </c>
       <c r="C570">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B571" s="1">
-        <v>66054</v>
+        <v>66538</v>
       </c>
       <c r="C571">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B572" s="1">
-        <v>66066</v>
+        <v>66550</v>
       </c>
       <c r="C572">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B573" s="1">
-        <v>66073</v>
+        <v>53</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C573">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B574" s="1">
-        <v>66086</v>
+        <v>66053</v>
       </c>
       <c r="C574">
-        <v>3086</v>
+        <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B575" s="1">
-        <v>66109</v>
+        <v>66067</v>
       </c>
       <c r="C575">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B576" s="1">
-        <v>0</v>
+        <v>66076</v>
       </c>
       <c r="C576">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B577" s="1">
-        <v>66054</v>
+        <v>66095</v>
       </c>
       <c r="C577">
-        <v>2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B578" s="1">
-        <v>66060</v>
+        <v>66427</v>
       </c>
       <c r="C578">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B579" s="1">
-        <v>66066</v>
+        <v>66502</v>
       </c>
       <c r="C579">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B580" s="1">
-        <v>66070</v>
+        <v>66508</v>
       </c>
       <c r="C580">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B581" s="1">
-        <v>66088</v>
+        <v>66528</v>
       </c>
       <c r="C581">
-        <v>359</v>
+        <v>6</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B582" s="1">
-        <v>66419</v>
+        <v>66547</v>
       </c>
       <c r="C582">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B583" s="1">
-        <v>66512</v>
+        <v>66801</v>
       </c>
       <c r="C583">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B584" s="1">
-        <v>66006</v>
+        <v>67701</v>
       </c>
       <c r="C584">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B585" s="1">
-        <v>66021</v>
+        <v>54</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C585">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B586" s="1">
-        <v>66030</v>
+        <v>66002</v>
       </c>
       <c r="C586">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B587" s="1">
-        <v>66066</v>
+        <v>66016</v>
       </c>
       <c r="C587">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B588" s="1">
-        <v>66067</v>
+        <v>66053</v>
       </c>
       <c r="C588">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B589" s="1">
-        <v>66071</v>
+        <v>66054</v>
       </c>
       <c r="C589">
-        <v>45</v>
+        <v>207</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B590" s="1">
-        <v>66079</v>
+        <v>66066</v>
       </c>
       <c r="C590">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B591" s="1">
-        <v>66092</v>
+        <v>66088</v>
       </c>
       <c r="C591">
-        <v>1229</v>
+        <v>33</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B592" s="1">
-        <v>66428</v>
+        <v>66097</v>
       </c>
       <c r="C592">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B593" s="1">
-        <v>66516</v>
+        <v>67501</v>
       </c>
       <c r="C593">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B594" s="1">
-        <v>66538</v>
-      </c>
-      <c r="C594">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B595" s="1">
-        <v>66550</v>
-      </c>
-      <c r="C595">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C596">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B597" s="1">
-        <v>66053</v>
-      </c>
-      <c r="C597">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B598" s="1">
-        <v>66067</v>
-      </c>
-      <c r="C598">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B599" s="1">
-        <v>66076</v>
-      </c>
-      <c r="C599">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B600" s="1">
-        <v>66095</v>
-      </c>
-      <c r="C600">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B601" s="1">
-        <v>66427</v>
-      </c>
-      <c r="C601">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B602" s="1">
-        <v>66502</v>
-      </c>
-      <c r="C602">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B603" s="1">
-        <v>66508</v>
-      </c>
-      <c r="C603">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B604" s="1">
-        <v>66528</v>
-      </c>
-      <c r="C604">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B605" s="1">
-        <v>66547</v>
-      </c>
-      <c r="C605">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B606" s="1">
-        <v>66801</v>
-      </c>
-      <c r="C606">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B607" s="1">
-        <v>67156</v>
-      </c>
-      <c r="C607">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B608" s="1">
-        <v>67420</v>
-      </c>
-      <c r="C608">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B609" s="1">
-        <v>67701</v>
-      </c>
-      <c r="C609">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C610">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B611" s="1">
-        <v>66002</v>
-      </c>
-      <c r="C611">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B612" s="1">
-        <v>66016</v>
-      </c>
-      <c r="C612">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B613" s="1">
-        <v>66053</v>
-      </c>
-      <c r="C613">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B614" s="1">
-        <v>66054</v>
-      </c>
-      <c r="C614">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B615" s="1">
-        <v>66066</v>
-      </c>
-      <c r="C615">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B616" s="1">
-        <v>66088</v>
-      </c>
-      <c r="C616">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B617" s="1">
-        <v>66097</v>
-      </c>
-      <c r="C617">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B618" s="1">
-        <v>66901</v>
-      </c>
-      <c r="C618">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B619" s="1">
-        <v>67501</v>
-      </c>
-      <c r="C619">
         <v>1</v>
       </c>
     </row>
@@ -7448,7 +7162,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7491,7 +7205,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7534,7 +7248,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7561,9 +7275,8 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -7574,7 +7287,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7617,7 +7330,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7660,7 +7373,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7699,7 +7412,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7738,7 +7451,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7781,7 +7494,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7824,7 +7537,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7867,7 +7580,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
